--- a/Tablas/plantillaRecaudadora.xlsx
+++ b/Tablas/plantillaRecaudadora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\bot4\Tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437477D-420C-43CE-9090-F110EA451AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A6AAE-68B1-422F-A09D-B50D7D3AE98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="381" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="750" windowWidth="20265" windowHeight="10770" tabRatio="381" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT Distribuidora" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="160">
   <si>
     <t>TOTAL COBRADO</t>
   </si>
@@ -240,12 +240,6 @@
     <t>Libro Mayor</t>
   </si>
   <si>
-    <t>19/04/2023</t>
-  </si>
-  <si>
-    <t>CONFIRMADO</t>
-  </si>
-  <si>
     <t>BISA</t>
   </si>
   <si>
@@ -346,141 +340,6 @@
   </si>
   <si>
     <t>Total Bs.</t>
-  </si>
-  <si>
-    <t>56606</t>
-  </si>
-  <si>
-    <t>CCAJ-LP07/88/23</t>
-  </si>
-  <si>
-    <t>8,522.57</t>
-  </si>
-  <si>
-    <t>1,000.00</t>
-  </si>
-  <si>
-    <t>JHONNY IGNACIO FLORES LOPEZ</t>
-  </si>
-  <si>
-    <t>7,272.20</t>
-  </si>
-  <si>
-    <t>001998</t>
-  </si>
-  <si>
-    <t>1062589 CH</t>
-  </si>
-  <si>
-    <t>Sobrante</t>
-  </si>
-  <si>
-    <t>Por diferencia de Precios</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>001999</t>
-  </si>
-  <si>
-    <t>3396407 LP</t>
-  </si>
-  <si>
-    <t>002000</t>
-  </si>
-  <si>
-    <t>467000 LP</t>
-  </si>
-  <si>
-    <t>56603</t>
-  </si>
-  <si>
-    <t>CCAJ-LP01/171/23</t>
-  </si>
-  <si>
-    <t>3,635.30</t>
-  </si>
-  <si>
-    <t>ABEL URBANO ALARCON ARROYO</t>
-  </si>
-  <si>
-    <t>2,635.30</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>56598</t>
-  </si>
-  <si>
-    <t>CCAJ-LP01/170/23</t>
-  </si>
-  <si>
-    <t>7,878.59</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS CAPCHA ORELLANA</t>
-  </si>
-  <si>
-    <t>6,550.70</t>
-  </si>
-  <si>
-    <t>001175</t>
-  </si>
-  <si>
-    <t>4319504LP</t>
-  </si>
-  <si>
-    <t>001176</t>
-  </si>
-  <si>
-    <t>4746249LP</t>
-  </si>
-  <si>
-    <t>001172</t>
-  </si>
-  <si>
-    <t>4281913</t>
-  </si>
-  <si>
-    <t>001173</t>
-  </si>
-  <si>
-    <t>3748394 cbba</t>
-  </si>
-  <si>
-    <t>001174</t>
-  </si>
-  <si>
-    <t>4804039LP</t>
-  </si>
-  <si>
-    <t>56599</t>
-  </si>
-  <si>
-    <t>CCAJ-TA06/88/23</t>
-  </si>
-  <si>
-    <t>5,787.36</t>
-  </si>
-  <si>
-    <t>BELZA GUTIERREZ CONDORI</t>
-  </si>
-  <si>
-    <t>4,587.60</t>
-  </si>
-  <si>
-    <t>002167</t>
-  </si>
-  <si>
-    <t>5033382 TJ</t>
-  </si>
-  <si>
-    <t>(0.85)</t>
-  </si>
-  <si>
-    <t>002168</t>
   </si>
   <si>
     <t>BANCO</t>
@@ -1594,6 +1453,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1612,24 +1484,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1951,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A2:CE886"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2078,161 +1937,161 @@
       <c r="H3" s="74"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="112"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="118"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="114"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="120"/>
       <c r="AP3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="107" t="s">
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="108"/>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="108"/>
-      <c r="BP3" s="109"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="115"/>
+      <c r="BC3" s="115"/>
+      <c r="BD3" s="115"/>
+      <c r="BE3" s="115"/>
+      <c r="BF3" s="115"/>
+      <c r="BG3" s="115"/>
+      <c r="BH3" s="115"/>
+      <c r="BI3" s="115"/>
+      <c r="BJ3" s="115"/>
+      <c r="BK3" s="115"/>
+      <c r="BL3" s="115"/>
+      <c r="BM3" s="115"/>
+      <c r="BN3" s="115"/>
+      <c r="BO3" s="115"/>
+      <c r="BP3" s="116"/>
       <c r="BT3" s="6"/>
       <c r="BW3" s="16"/>
       <c r="BX3" s="16"/>
       <c r="BY3" s="34"/>
     </row>
     <row r="4" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="74"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="115" t="s">
+      <c r="K4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="119" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="120"/>
-      <c r="O4" s="119" t="s">
+      <c r="N4" s="109"/>
+      <c r="O4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="119" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="111"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="119" t="s">
+      <c r="R4" s="110"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="111"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="115" t="s">
+      <c r="U4" s="110"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="113" t="s">
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="114"/>
+      <c r="AB4" s="120"/>
       <c r="AC4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="114"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="120"/>
       <c r="AF4" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="114"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="120"/>
       <c r="AI4" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="114"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="120"/>
       <c r="AN4" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AO4" s="114"/>
+      <c r="AO4" s="120"/>
       <c r="AP4" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="114"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="120"/>
       <c r="AT4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="114"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="120"/>
       <c r="AX4" s="99"/>
       <c r="AY4" s="98"/>
       <c r="AZ4" s="100"/>
       <c r="BA4" s="97"/>
-      <c r="BB4" s="105" t="s">
+      <c r="BB4" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="BC4" s="106"/>
+      <c r="BC4" s="113"/>
       <c r="BD4" s="102" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2106,7 @@
       <c r="BK4" s="98"/>
       <c r="BL4" s="101"/>
       <c r="BM4" s="96" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="BN4" s="101"/>
       <c r="BO4" s="101"/>
@@ -2476,61 +2335,61 @@
         <v>55</v>
       </c>
       <c r="AX6" s="52" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="AY6" s="52" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="AZ6" s="53" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="BA6" s="54" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="BB6" s="54" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="BC6" s="54" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="BD6" s="54" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="BE6" s="54" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="BF6" s="54" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="BG6" s="55" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="BH6" s="54" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="BI6" s="54" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="BJ6" s="54" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="BK6" s="54" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="BL6" s="54" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="BM6" s="54" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="BN6" s="54" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="BO6" s="54" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="BP6" s="56" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="BQ6" s="57" t="s">
         <v>57</v>
@@ -77366,12 +77225,6 @@
   </sheetData>
   <autoFilter ref="A6:BI6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="BB4:BC4"/>
     <mergeCell ref="AX3:BP3"/>
     <mergeCell ref="M3:Z3"/>
@@ -77385,6 +77238,12 @@
     <mergeCell ref="AC3:AO3"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -77396,9 +77255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -77416,12 +77273,12 @@
   <sheetData>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="124" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="125"/>
       <c r="K4" s="125"/>
@@ -77432,52 +77289,52 @@
     </row>
     <row r="5" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I5" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="106"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="127" t="s">
+      <c r="S5" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="127" t="s">
+      <c r="T5" s="120"/>
+      <c r="U5" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="131" t="s">
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="T5" s="114"/>
-      <c r="U5" s="132" t="s">
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="133" t="s">
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="114"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="120"/>
       <c r="AK5" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="117"/>
-      <c r="AM5" s="117"/>
-      <c r="AN5" s="114"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="120"/>
     </row>
     <row r="6" spans="1:41" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
@@ -77493,10 +77350,10 @@
         <v>25</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>27</v>
@@ -77508,83 +77365,83 @@
         <v>12</v>
       </c>
       <c r="J6" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="M6" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>80</v>
-      </c>
       <c r="N6" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O6" s="128"/>
       <c r="P6" s="68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R6" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S6" s="69" t="s">
         <v>55</v>
       </c>
       <c r="T6" s="69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U6" s="70" t="s">
         <v>24</v>
       </c>
       <c r="V6" s="70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W6" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X6" s="70" t="s">
         <v>36</v>
       </c>
       <c r="Y6" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA6" s="70" t="s">
         <v>36</v>
       </c>
       <c r="AB6" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" s="70" t="s">
+      <c r="AE6" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="AD6" s="70" t="s">
+      <c r="AF6" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="AE6" s="70" t="s">
+      <c r="AG6" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="AF6" s="71" t="s">
+      <c r="AH6" s="72" t="s">
         <v>93</v>
-      </c>
-      <c r="AG6" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH6" s="72" t="s">
-        <v>95</v>
       </c>
       <c r="AI6" s="72" t="s">
         <v>36</v>
       </c>
       <c r="AJ6" s="72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AK6" s="57" t="s">
         <v>57</v>
@@ -77603,72 +77460,30 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7"/>
-      <c r="J7">
-        <v>7272.17</v>
-      </c>
-      <c r="K7">
-        <v>250.37</v>
-      </c>
-      <c r="L7">
-        <v>217.71</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7"/>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>7740.25</v>
-      </c>
-      <c r="P7">
-        <v>8272.2000000000007</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S7" t="s">
-        <v>102</v>
-      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
       <c r="T7"/>
-      <c r="U7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W7" t="s">
-        <v>104</v>
-      </c>
-      <c r="X7">
-        <v>65.12</v>
-      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
@@ -77676,84 +77491,36 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
-      <c r="AF7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>106</v>
-      </c>
+      <c r="AF7"/>
+      <c r="AG7"/>
       <c r="AH7"/>
-      <c r="AI7" t="s">
-        <v>107</v>
-      </c>
+      <c r="AI7"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8"/>
-      <c r="J8">
-        <v>7272.17</v>
-      </c>
-      <c r="K8">
-        <v>250.37</v>
-      </c>
-      <c r="L8">
-        <v>217.71</v>
-      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8"/>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>7740.25</v>
-      </c>
-      <c r="P8">
-        <v>8272.2000000000007</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" t="s">
-        <v>102</v>
-      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
       <c r="T8"/>
-      <c r="U8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" t="s">
-        <v>108</v>
-      </c>
-      <c r="W8" t="s">
-        <v>109</v>
-      </c>
-      <c r="X8">
-        <v>128.6</v>
-      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
@@ -77767,72 +77534,30 @@
       <c r="AI8"/>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9"/>
-      <c r="J9">
-        <v>7272.17</v>
-      </c>
-      <c r="K9">
-        <v>250.37</v>
-      </c>
-      <c r="L9">
-        <v>217.71</v>
-      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>7740.25</v>
-      </c>
-      <c r="P9">
-        <v>8272.2000000000007</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" t="s">
-        <v>102</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
       <c r="T9"/>
-      <c r="U9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" t="s">
-        <v>110</v>
-      </c>
-      <c r="W9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X9">
-        <v>56.65</v>
-      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
@@ -77846,59 +77571,25 @@
       <c r="AI9"/>
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10"/>
-      <c r="J10">
-        <v>2635.28</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>243.67</v>
-      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
       <c r="M10"/>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>2878.95</v>
-      </c>
-      <c r="P10">
-        <v>3635.3</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" t="s">
-        <v>116</v>
-      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
@@ -77911,84 +77602,36 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
-      <c r="AF10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>106</v>
-      </c>
+      <c r="AF10"/>
+      <c r="AG10"/>
       <c r="AH10"/>
-      <c r="AI10" t="s">
-        <v>117</v>
-      </c>
+      <c r="AI10"/>
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>121</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11"/>
-      <c r="J11">
-        <v>6550.68</v>
-      </c>
-      <c r="K11">
-        <v>327.89</v>
-      </c>
-      <c r="L11">
-        <v>356.31</v>
-      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11"/>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>7234.88</v>
-      </c>
-      <c r="P11">
-        <v>7550.7</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" t="s">
-        <v>122</v>
-      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
       <c r="T11"/>
-      <c r="U11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" t="s">
-        <v>123</v>
-      </c>
-      <c r="W11" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11">
-        <v>33</v>
-      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
@@ -77996,84 +77639,36 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
-      <c r="AF11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>106</v>
-      </c>
+      <c r="AF11"/>
+      <c r="AG11"/>
       <c r="AH11"/>
-      <c r="AI11" t="s">
-        <v>117</v>
-      </c>
+      <c r="AI11"/>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
       <c r="I12"/>
-      <c r="J12">
-        <v>6550.68</v>
-      </c>
-      <c r="K12">
-        <v>327.89</v>
-      </c>
-      <c r="L12">
-        <v>356.31</v>
-      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12"/>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>7234.88</v>
-      </c>
-      <c r="P12">
-        <v>7550.7</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" t="s">
-        <v>122</v>
-      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
       <c r="T12"/>
-      <c r="U12" t="s">
-        <v>62</v>
-      </c>
-      <c r="V12" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12">
-        <v>15.4</v>
-      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
@@ -78087,72 +77682,30 @@
       <c r="AI12"/>
     </row>
     <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>121</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
       <c r="I13"/>
-      <c r="J13">
-        <v>6550.68</v>
-      </c>
-      <c r="K13">
-        <v>327.89</v>
-      </c>
-      <c r="L13">
-        <v>356.31</v>
-      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13"/>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>7234.88</v>
-      </c>
-      <c r="P13">
-        <v>7550.7</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" t="s">
-        <v>122</v>
-      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
       <c r="T13"/>
-      <c r="U13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" t="s">
-        <v>128</v>
-      </c>
-      <c r="X13">
-        <v>73.92</v>
-      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
@@ -78166,72 +77719,30 @@
       <c r="AI13"/>
     </row>
     <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>121</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
       <c r="I14"/>
-      <c r="J14">
-        <v>6550.68</v>
-      </c>
-      <c r="K14">
-        <v>327.89</v>
-      </c>
-      <c r="L14">
-        <v>356.31</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
       <c r="M14"/>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>7234.88</v>
-      </c>
-      <c r="P14">
-        <v>7550.7</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" t="s">
-        <v>122</v>
-      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
       <c r="T14"/>
-      <c r="U14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" t="s">
-        <v>129</v>
-      </c>
-      <c r="W14" t="s">
-        <v>130</v>
-      </c>
-      <c r="X14">
-        <v>145.80000000000001</v>
-      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
@@ -78245,72 +77756,30 @@
       <c r="AI14"/>
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>121</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
       <c r="I15"/>
-      <c r="J15">
-        <v>6550.68</v>
-      </c>
-      <c r="K15">
-        <v>327.89</v>
-      </c>
-      <c r="L15">
-        <v>356.31</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="M15"/>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>7234.88</v>
-      </c>
-      <c r="P15">
-        <v>7550.7</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" t="s">
-        <v>122</v>
-      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
       <c r="T15"/>
-      <c r="U15" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" t="s">
-        <v>131</v>
-      </c>
-      <c r="W15" t="s">
-        <v>132</v>
-      </c>
-      <c r="X15">
-        <v>59.77</v>
-      </c>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -78324,72 +77793,30 @@
       <c r="AI15"/>
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
       <c r="I16"/>
-      <c r="J16">
-        <v>4586.75</v>
-      </c>
-      <c r="K16">
-        <v>199.76</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="M16"/>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>4786.51</v>
-      </c>
-      <c r="P16">
-        <v>5587.6</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" t="s">
-        <v>137</v>
-      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
       <c r="T16"/>
-      <c r="U16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" t="s">
-        <v>138</v>
-      </c>
-      <c r="W16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X16">
-        <v>27.5</v>
-      </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
@@ -78397,84 +77824,36 @@
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
-      <c r="AF16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>106</v>
-      </c>
+      <c r="AF16"/>
+      <c r="AG16"/>
       <c r="AH16"/>
-      <c r="AI16" t="s">
-        <v>140</v>
-      </c>
+      <c r="AI16"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>136</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
       <c r="I17"/>
-      <c r="J17">
-        <v>4586.75</v>
-      </c>
-      <c r="K17">
-        <v>199.76</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17"/>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>4786.51</v>
-      </c>
-      <c r="P17">
-        <v>5587.6</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>100</v>
-      </c>
-      <c r="S17" t="s">
-        <v>137</v>
-      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
       <c r="T17"/>
-      <c r="U17" t="s">
-        <v>62</v>
-      </c>
-      <c r="V17" t="s">
-        <v>141</v>
-      </c>
-      <c r="W17" t="s">
-        <v>139</v>
-      </c>
-      <c r="X17">
-        <v>54.34</v>
-      </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
@@ -78521,21 +77900,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B2" s="78">
         <v>4010501329</v>
@@ -78544,12 +77923,12 @@
         <v>101041001</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B3" s="78">
         <v>4010066211</v>
@@ -78558,12 +77937,12 @@
         <v>101041011</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B4" s="78">
         <v>4010374232</v>
@@ -78572,12 +77951,12 @@
         <v>101041031</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B5" s="78">
         <v>4010132476</v>
@@ -78586,12 +77965,12 @@
         <v>101041041</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B6" s="78">
         <v>4010542984</v>
@@ -78600,12 +77979,12 @@
         <v>101041051</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B7" s="78">
         <v>4010678183</v>
@@ -78614,12 +77993,12 @@
         <v>101041081</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B8" s="78">
         <v>2120271437</v>
@@ -78628,12 +78007,12 @@
         <v>101042011</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B9" s="78">
         <v>1539</v>
@@ -78642,12 +78021,12 @@
         <v>101042021</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B10" s="78">
         <v>2015026265385</v>
@@ -78656,12 +78035,12 @@
         <v>101043001</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B11" s="78">
         <v>7015054675359</v>
@@ -78670,12 +78049,12 @@
         <v>101043041</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="78">
         <v>100070022</v>
@@ -78684,12 +78063,12 @@
         <v>101044011</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="78">
         <v>100070031</v>
@@ -78698,12 +78077,12 @@
         <v>101044021</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="78">
         <v>100070049</v>
@@ -78712,12 +78091,12 @@
         <v>101044031</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="78">
         <v>100070057</v>
@@ -78726,12 +78105,12 @@
         <v>101044041</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="78">
         <v>100070065</v>
@@ -78740,12 +78119,12 @@
         <v>101044051</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="78">
         <v>100070073</v>
@@ -78754,12 +78133,12 @@
         <v>101044061</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="78">
         <v>100070081</v>
@@ -78768,12 +78147,12 @@
         <v>101044071</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="78">
         <v>100070090</v>
@@ -78782,12 +78161,12 @@
         <v>101044081</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="78">
         <v>100070103</v>
@@ -78796,12 +78175,12 @@
         <v>101044091</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="78">
         <v>100070111</v>
@@ -78810,12 +78189,12 @@
         <v>101044101</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B22" s="78">
         <v>4010640108</v>
@@ -78824,12 +78203,12 @@
         <v>101051011</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B23" s="78">
         <v>100072017</v>
@@ -78838,7 +78217,7 @@
         <v>101052001</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -78864,107 +78243,107 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Tablas/plantillaRecaudadora.xlsx
+++ b/Tablas/plantillaRecaudadora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\bot4\Tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939A6AAE-68B1-422F-A09D-B50D7D3AE98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA1098-F9EB-4D65-87C1-FDCC57CD5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="750" windowWidth="20265" windowHeight="10770" tabRatio="381" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="381" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT Distribuidora" sheetId="1" r:id="rId1"/>
@@ -1453,19 +1453,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1484,20 +1471,33 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,8 +1810,9 @@
   </sheetPr>
   <dimension ref="A2:CE886"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1937,161 +1938,161 @@
       <c r="H3" s="74"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="M3" s="117" t="s">
+      <c r="M3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="118"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="112"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="123" t="s">
+      <c r="AC3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="122" t="s">
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="114" t="s">
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="117"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="115"/>
-      <c r="BI3" s="115"/>
-      <c r="BJ3" s="115"/>
-      <c r="BK3" s="115"/>
-      <c r="BL3" s="115"/>
-      <c r="BM3" s="115"/>
-      <c r="BN3" s="115"/>
-      <c r="BO3" s="115"/>
-      <c r="BP3" s="116"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="109"/>
       <c r="BT3" s="6"/>
       <c r="BW3" s="16"/>
       <c r="BX3" s="16"/>
       <c r="BY3" s="34"/>
     </row>
     <row r="4" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="74"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="108" t="s">
+      <c r="L4" s="111"/>
+      <c r="M4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="109"/>
-      <c r="O4" s="108" t="s">
+      <c r="N4" s="123"/>
+      <c r="O4" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="108" t="s">
+      <c r="P4" s="123"/>
+      <c r="Q4" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="108" t="s">
+      <c r="R4" s="111"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="110"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="111" t="s">
+      <c r="U4" s="111"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="119" t="s">
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="123" t="s">
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="123" t="s">
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="123" t="s">
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="123" t="s">
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="121" t="s">
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="122" t="s">
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="120"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="114"/>
       <c r="AX4" s="99"/>
       <c r="AY4" s="98"/>
       <c r="AZ4" s="100"/>
       <c r="BA4" s="97"/>
-      <c r="BB4" s="112" t="s">
+      <c r="BB4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="BC4" s="113"/>
+      <c r="BC4" s="106"/>
       <c r="BD4" s="102" t="s">
         <v>16</v>
       </c>
@@ -77225,6 +77226,12 @@
   </sheetData>
   <autoFilter ref="A6:BI6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="BB4:BC4"/>
     <mergeCell ref="AX3:BP3"/>
     <mergeCell ref="M3:Z3"/>
@@ -77238,12 +77245,6 @@
     <mergeCell ref="AC3:AO3"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -77255,7 +77256,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -77291,50 +77295,50 @@
       <c r="I5" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="120"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="114"/>
       <c r="L5" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="120"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="114"/>
       <c r="O5" s="127" t="s">
         <v>67</v>
       </c>
       <c r="S5" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="120"/>
+      <c r="T5" s="114"/>
       <c r="U5" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="120"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="114"/>
       <c r="Y5" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="120"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="114"/>
       <c r="AB5" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="120"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="114"/>
       <c r="AF5" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="120"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="114"/>
       <c r="AK5" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="120"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="114"/>
     </row>
     <row r="6" spans="1:41" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
